--- a/Code/Results/Cases/Case_1_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.229408857687957</v>
+        <v>0.7748443491049954</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009595531275824243</v>
+        <v>0.004241245969367924</v>
       </c>
       <c r="E2">
-        <v>0.5760672069138977</v>
+        <v>0.4807100932212052</v>
       </c>
       <c r="F2">
-        <v>0.8572201600071025</v>
+        <v>0.5738872358297726</v>
       </c>
       <c r="G2">
-        <v>0.0007559582609709681</v>
+        <v>0.002367532321094571</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2717044230183188</v>
+        <v>0.7740553189655508</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4722533967198785</v>
+        <v>0.2133349440246661</v>
       </c>
       <c r="M2">
-        <v>0.3817935217381958</v>
+        <v>0.2090503303009541</v>
       </c>
       <c r="N2">
-        <v>1.378811633536884</v>
+        <v>1.574741273958978</v>
       </c>
       <c r="O2">
-        <v>2.566430254289486</v>
+        <v>1.839629889463225</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.076110582860082</v>
+        <v>0.7303581576005342</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.008521629841215628</v>
+        <v>0.003887375460227105</v>
       </c>
       <c r="E3">
-        <v>0.5334038904386276</v>
+        <v>0.4675654428869507</v>
       </c>
       <c r="F3">
-        <v>0.7526220583235386</v>
+        <v>0.5506324538694258</v>
       </c>
       <c r="G3">
-        <v>0.0007607896171806885</v>
+        <v>0.002370847008024264</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2923117593324873</v>
+        <v>0.786366584358291</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4107657948803478</v>
+        <v>0.1956957426630623</v>
       </c>
       <c r="M3">
-        <v>0.3332232637047667</v>
+        <v>0.1950314830238824</v>
       </c>
       <c r="N3">
-        <v>1.339973082272394</v>
+        <v>1.566145445541849</v>
       </c>
       <c r="O3">
-        <v>2.259022004569147</v>
+        <v>1.773912749601266</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9822023759426202</v>
+        <v>0.7032020066927203</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00786143628507574</v>
+        <v>0.003668921130433489</v>
       </c>
       <c r="E4">
-        <v>0.5072057597561113</v>
+        <v>0.4594787765513644</v>
       </c>
       <c r="F4">
-        <v>0.6896669020510728</v>
+        <v>0.5367620818859251</v>
       </c>
       <c r="G4">
-        <v>0.0007638551425425688</v>
+        <v>0.002372993154237461</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3057117798428259</v>
+        <v>0.7943611820636409</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3731702987853396</v>
+        <v>0.1849108055239412</v>
       </c>
       <c r="M4">
-        <v>0.3034904557357905</v>
+        <v>0.1864688781993848</v>
       </c>
       <c r="N4">
-        <v>1.317195442079026</v>
+        <v>1.561434346395728</v>
       </c>
       <c r="O4">
-        <v>2.074381922912067</v>
+        <v>1.734905112674625</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9439790451292538</v>
+        <v>0.692176493205551</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.007592126870090254</v>
+        <v>0.003579609102647652</v>
       </c>
       <c r="E5">
-        <v>0.4965271511947549</v>
+        <v>0.456179752841031</v>
       </c>
       <c r="F5">
-        <v>0.6643004626548219</v>
+        <v>0.5312121717730633</v>
       </c>
       <c r="G5">
-        <v>0.0007651298246662152</v>
+        <v>0.002373895702896095</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.311355401199962</v>
+        <v>0.797728529855922</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3578828948060817</v>
+        <v>0.1805275510443778</v>
       </c>
       <c r="M5">
-        <v>0.2913927337693707</v>
+        <v>0.1829911269549243</v>
       </c>
       <c r="N5">
-        <v>1.308175735102168</v>
+        <v>1.559657839741647</v>
       </c>
       <c r="O5">
-        <v>2.000075600593192</v>
+        <v>1.71934596061385</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9376345384120555</v>
+        <v>0.6903482102040357</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007547389703539409</v>
+        <v>0.003564761554706308</v>
       </c>
       <c r="E6">
-        <v>0.494753762943823</v>
+        <v>0.4556317422753082</v>
       </c>
       <c r="F6">
-        <v>0.6601049336197917</v>
+        <v>0.5302967894218682</v>
       </c>
       <c r="G6">
-        <v>0.0007653430375755857</v>
+        <v>0.00237404726281364</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3123034350281659</v>
+        <v>0.7982942877365193</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3553462421083964</v>
+        <v>0.1798004280365006</v>
       </c>
       <c r="M6">
-        <v>0.2893849333256426</v>
+        <v>0.1824143560021625</v>
       </c>
       <c r="N6">
-        <v>1.306693681956062</v>
+        <v>1.559371530587867</v>
       </c>
       <c r="O6">
-        <v>1.987790883067902</v>
+        <v>1.716782688932057</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9816867127799753</v>
+        <v>0.7030531461237501</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007857805486150227</v>
+        <v>0.003667717804038517</v>
       </c>
       <c r="E7">
-        <v>0.5070617574974108</v>
+        <v>0.4594342990664018</v>
       </c>
       <c r="F7">
-        <v>0.6893236733400272</v>
+        <v>0.5366868196685886</v>
       </c>
       <c r="G7">
-        <v>0.0007638722296071168</v>
+        <v>0.002373005212952595</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3057871569815016</v>
+        <v>0.7944061520064023</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3729640021838065</v>
+        <v>0.1848516437670185</v>
       </c>
       <c r="M7">
-        <v>0.3033272311062518</v>
+        <v>0.186421928801991</v>
       </c>
       <c r="N7">
-        <v>1.317072745207582</v>
+        <v>1.561409806526385</v>
       </c>
       <c r="O7">
-        <v>2.073376136684203</v>
+        <v>1.734693914137324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.176500397799856</v>
+        <v>0.7594731695427583</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009225373837725925</v>
+        <v>0.004119478889016648</v>
       </c>
       <c r="E8">
-        <v>0.5613561605473194</v>
+        <v>0.476181290963801</v>
       </c>
       <c r="F8">
-        <v>0.8208724094968574</v>
+        <v>0.5657841114829836</v>
       </c>
       <c r="G8">
-        <v>0.0007576038932655938</v>
+        <v>0.002368652256964935</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2786518187928755</v>
+        <v>0.7782098658611034</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4510154702671514</v>
+        <v>0.207243613076912</v>
       </c>
       <c r="M8">
-        <v>0.3650254950740859</v>
+        <v>0.20420743714228</v>
       </c>
       <c r="N8">
-        <v>1.365194081812135</v>
+        <v>1.571660260979655</v>
       </c>
       <c r="O8">
-        <v>2.45952238320433</v>
+        <v>1.816691311576676</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.56074206417108</v>
+        <v>0.8713338756544999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01190443551806908</v>
+        <v>0.004995837596599273</v>
       </c>
       <c r="E9">
-        <v>0.6679160535218287</v>
+        <v>0.5088837487412547</v>
       </c>
       <c r="F9">
-        <v>1.090392200766885</v>
+        <v>0.6260975740445787</v>
       </c>
       <c r="G9">
-        <v>0.0007460712417927645</v>
+        <v>0.002360992243782305</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2315924610583089</v>
+        <v>0.7499038805780929</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6056598850841226</v>
+        <v>0.2515083149291826</v>
       </c>
       <c r="M9">
-        <v>0.4869188586067139</v>
+        <v>0.2394324833578665</v>
       </c>
       <c r="N9">
-        <v>1.468365083747827</v>
+        <v>1.596226618815635</v>
       </c>
       <c r="O9">
-        <v>3.254091059396956</v>
+        <v>1.988195915065887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.845145179219912</v>
+        <v>0.9542214552155315</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01387713137546243</v>
+        <v>0.005633660349293024</v>
       </c>
       <c r="E10">
-        <v>0.746446862015965</v>
+        <v>0.5328107246589155</v>
       </c>
       <c r="F10">
-        <v>1.297689752983999</v>
+        <v>0.672419811898564</v>
       </c>
       <c r="G10">
-        <v>0.0007380217934320848</v>
+        <v>0.002355893032632402</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2010937831576447</v>
+        <v>0.731212934187941</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.720749226363921</v>
+        <v>0.2842384328994285</v>
       </c>
       <c r="M10">
-        <v>0.5773208042946294</v>
+        <v>0.2655141661284475</v>
       </c>
       <c r="N10">
-        <v>1.550014508499558</v>
+        <v>1.616958675674226</v>
       </c>
       <c r="O10">
-        <v>3.867735390959297</v>
+        <v>2.120815983403304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.975165938120369</v>
+        <v>0.9920737779063984</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01477709379192049</v>
+        <v>0.005922468826550897</v>
       </c>
       <c r="E11">
-        <v>0.7822756242884523</v>
+        <v>0.5436710432402236</v>
       </c>
       <c r="F11">
-        <v>1.394553837295646</v>
+        <v>0.6939354085729548</v>
       </c>
       <c r="G11">
-        <v>0.0007344423976347524</v>
+        <v>0.002353686878641534</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.188179819492539</v>
+        <v>0.7231669498702749</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7735490930647302</v>
+        <v>0.2991722738750866</v>
       </c>
       <c r="M11">
-        <v>0.6187028168999049</v>
+        <v>0.2774212433569616</v>
       </c>
       <c r="N11">
-        <v>1.588543840323638</v>
+        <v>1.62696493235174</v>
       </c>
       <c r="O11">
-        <v>4.155115147641595</v>
+        <v>2.182604589834568</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.024509935819367</v>
+        <v>1.006427643068776</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0151184039170964</v>
+        <v>0.00603163546118779</v>
       </c>
       <c r="E12">
-        <v>0.7958629325707349</v>
+        <v>0.5477797790485681</v>
       </c>
       <c r="F12">
-        <v>1.431651715151091</v>
+        <v>0.7021469264392124</v>
       </c>
       <c r="G12">
-        <v>0.0007330979659834302</v>
+        <v>0.002352867698245577</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1834344467162872</v>
+        <v>0.7201858166923283</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7936180383599662</v>
+        <v>0.3048335812245284</v>
       </c>
       <c r="M12">
-        <v>0.6344165057915845</v>
+        <v>0.2819360132832927</v>
       </c>
       <c r="N12">
-        <v>1.603343305404024</v>
+        <v>1.630836028985229</v>
       </c>
       <c r="O12">
-        <v>4.265279185937402</v>
+        <v>2.206213396308044</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.013877764702727</v>
+        <v>1.003335407751251</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01504487132394772</v>
+        <v>0.006008133415480899</v>
       </c>
       <c r="E13">
-        <v>0.7929357027065649</v>
+        <v>0.546895065286364</v>
       </c>
       <c r="F13">
-        <v>1.423642627559616</v>
+        <v>0.7003755771590079</v>
       </c>
       <c r="G13">
-        <v>0.0007333870378011764</v>
+        <v>0.002353043402237565</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.184449892011314</v>
+        <v>0.7208249340298907</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7892923244162944</v>
+        <v>0.3036140462282049</v>
       </c>
       <c r="M13">
-        <v>0.6310302559587129</v>
+        <v>0.28096342244352</v>
       </c>
       <c r="N13">
-        <v>1.600146505993337</v>
+        <v>1.629998686586717</v>
       </c>
       <c r="O13">
-        <v>4.241491178134936</v>
+        <v>2.201119426199455</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.979223242828823</v>
+        <v>0.9932542838655536</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0148051623904415</v>
+        <v>0.005931454052227281</v>
       </c>
       <c r="E14">
-        <v>0.7833930354555747</v>
+        <v>0.5440091502106839</v>
       </c>
       <c r="F14">
-        <v>1.397597238138971</v>
+        <v>0.6946096903172077</v>
       </c>
       <c r="G14">
-        <v>0.0007343315748298274</v>
+        <v>0.002353619159023709</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1877864710722241</v>
+        <v>0.7229203731354432</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.775198613503477</v>
+        <v>0.2996379104861262</v>
       </c>
       <c r="M14">
-        <v>0.6199946882549199</v>
+        <v>0.2777925611770442</v>
       </c>
       <c r="N14">
-        <v>1.589757148985512</v>
+        <v>1.627281771841012</v>
       </c>
       <c r="O14">
-        <v>4.164150619259999</v>
+        <v>2.184542670102701</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.958010881990731</v>
+        <v>0.9870818799627159</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01465840526407192</v>
+        <v>0.005884459648502371</v>
       </c>
       <c r="E15">
-        <v>0.7775505972247316</v>
+        <v>0.5422409344969452</v>
       </c>
       <c r="F15">
-        <v>1.381699587662581</v>
+        <v>0.6910862645496678</v>
       </c>
       <c r="G15">
-        <v>0.0007349115387227397</v>
+        <v>0.002353973939626503</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.189849296733861</v>
+        <v>0.7242124483530588</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7665758829947436</v>
+        <v>0.2972032107483358</v>
       </c>
       <c r="M15">
-        <v>0.6132409043314198</v>
+        <v>0.2758510665752567</v>
       </c>
       <c r="N15">
-        <v>1.583420920692163</v>
+        <v>1.62562823225835</v>
       </c>
       <c r="O15">
-        <v>4.116956611707394</v>
+        <v>2.174416410345032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.836662263186128</v>
+        <v>0.951750573464011</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01381838036905947</v>
+        <v>0.00561475854087945</v>
       </c>
       <c r="E16">
-        <v>0.7441078587856467</v>
+        <v>0.5321004604146111</v>
       </c>
       <c r="F16">
-        <v>1.291415127325024</v>
+        <v>0.6710226621590749</v>
       </c>
       <c r="G16">
-        <v>0.0007382573025851682</v>
+        <v>0.002356039487004865</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.201957632957158</v>
+        <v>0.73174795039799</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7173084880903957</v>
+        <v>0.2832633504211799</v>
       </c>
       <c r="M16">
-        <v>0.5746220933517492</v>
+        <v>0.2647368398875258</v>
       </c>
       <c r="N16">
-        <v>1.547525255864997</v>
+        <v>1.616316251414645</v>
       </c>
       <c r="O16">
-        <v>3.849133091944054</v>
+        <v>2.11680739755036</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.762394357733001</v>
+        <v>0.9301127088241969</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01330380794222208</v>
+        <v>0.005448957987418623</v>
       </c>
       <c r="E17">
-        <v>0.7236217475594344</v>
+        <v>0.525873162142581</v>
       </c>
       <c r="F17">
-        <v>1.23671859727088</v>
+        <v>0.6588280450048956</v>
       </c>
       <c r="G17">
-        <v>0.0007403303379350801</v>
+        <v>0.002357335647632181</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2096363192572031</v>
+        <v>0.7364877202494244</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6872059259653156</v>
+        <v>0.2747229812142962</v>
       </c>
       <c r="M17">
-        <v>0.5510009352829499</v>
+        <v>0.2579292811685718</v>
       </c>
       <c r="N17">
-        <v>1.525866382534133</v>
+        <v>1.610750416786047</v>
       </c>
       <c r="O17">
-        <v>3.687046779837544</v>
+        <v>2.081840542257169</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.71973708609832</v>
+        <v>0.9176810177959283</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01300807202537868</v>
+        <v>0.005353468103695747</v>
       </c>
       <c r="E18">
-        <v>0.7118482134452506</v>
+        <v>0.5222891297532968</v>
       </c>
       <c r="F18">
-        <v>1.205496709466672</v>
+        <v>0.6518557404777994</v>
       </c>
       <c r="G18">
-        <v>0.0007415304967304679</v>
+        <v>0.002358091853052401</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2141428295843111</v>
+        <v>0.7392568871188447</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6699329302478105</v>
+        <v>0.2698150132854096</v>
       </c>
       <c r="M18">
-        <v>0.5374385292247368</v>
+        <v>0.254017759832017</v>
       </c>
       <c r="N18">
-        <v>1.513538657920975</v>
+        <v>1.607603275775332</v>
       </c>
       <c r="O18">
-        <v>3.594583539156304</v>
+        <v>2.061865807688491</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.705303867581648</v>
+        <v>0.9134742687432436</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01290797677971156</v>
+        <v>0.005321115452574077</v>
       </c>
       <c r="E19">
-        <v>0.7078634036570151</v>
+        <v>0.52107526144421</v>
       </c>
       <c r="F19">
-        <v>1.194964986773883</v>
+        <v>0.649502194578119</v>
       </c>
       <c r="G19">
-        <v>0.0007419382144750647</v>
+        <v>0.002358349729213332</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.215683901370209</v>
+        <v>0.7402018593529966</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6640913538831512</v>
+        <v>0.2681539931701877</v>
       </c>
       <c r="M19">
-        <v>0.5328504499296614</v>
+        <v>0.252694082475216</v>
       </c>
       <c r="N19">
-        <v>1.509386720305173</v>
+        <v>1.606547036629536</v>
       </c>
       <c r="O19">
-        <v>3.563403842794344</v>
+        <v>2.055126252844843</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.770294021164489</v>
+        <v>0.9324146719220892</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01335856000639879</v>
+        <v>0.00546662080218141</v>
       </c>
       <c r="E20">
-        <v>0.7258015105815048</v>
+        <v>0.526536304640679</v>
       </c>
       <c r="F20">
-        <v>1.242516151660155</v>
+        <v>0.6601218633263102</v>
       </c>
       <c r="G20">
-        <v>0.0007401088579032123</v>
+        <v>0.002357196563635427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.208809554156338</v>
+        <v>0.7359787154145967</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6904060557766201</v>
+        <v>0.2756316824651464</v>
       </c>
       <c r="M20">
-        <v>0.5535129355265695</v>
+        <v>0.2586535447795484</v>
       </c>
       <c r="N20">
-        <v>1.528158494449343</v>
+        <v>1.611337307500762</v>
       </c>
       <c r="O20">
-        <v>3.704220931778991</v>
+        <v>2.085548608991587</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.989399057916728</v>
+        <v>0.996214819414206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01487555552656517</v>
+        <v>0.005953982085944887</v>
       </c>
       <c r="E21">
-        <v>0.7861953717055528</v>
+        <v>0.5448569202122187</v>
       </c>
       <c r="F21">
-        <v>1.405235656883491</v>
+        <v>0.6963015311832095</v>
       </c>
       <c r="G21">
-        <v>0.0007340538496215689</v>
+        <v>0.002353449605153928</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1868024490637124</v>
+        <v>0.7223031082615465</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7793361579876148</v>
+        <v>0.3008056320326773</v>
       </c>
       <c r="M21">
-        <v>0.6232348773992555</v>
+        <v>0.2787237642967924</v>
       </c>
       <c r="N21">
-        <v>1.592802994512539</v>
+        <v>1.628077577633945</v>
       </c>
       <c r="O21">
-        <v>4.186829748223147</v>
+        <v>2.189405936209141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.133234133087171</v>
+        <v>1.038028072324664</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01587007607452406</v>
+        <v>0.006271338881873589</v>
       </c>
       <c r="E22">
-        <v>0.8257839839955921</v>
+        <v>0.5568080075980788</v>
       </c>
       <c r="F22">
-        <v>1.514041938390534</v>
+        <v>0.7203203669404843</v>
       </c>
       <c r="G22">
-        <v>0.0007301602764911009</v>
+        <v>0.002351095386738709</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1732673701141623</v>
+        <v>0.7137483170892214</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8378986952015453</v>
+        <v>0.3172942042718603</v>
       </c>
       <c r="M22">
-        <v>0.6690573463936005</v>
+        <v>0.2918745975723169</v>
       </c>
       <c r="N22">
-        <v>1.636276574083723</v>
+        <v>1.639495599053134</v>
       </c>
       <c r="O22">
-        <v>4.510133133446232</v>
+        <v>2.258511877538524</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.056402954311409</v>
+        <v>1.015701263357414</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01533894763474919</v>
+        <v>0.006102067924562249</v>
       </c>
       <c r="E23">
-        <v>0.8046422848161328</v>
+        <v>0.5504316620433016</v>
       </c>
       <c r="F23">
-        <v>1.4557276103871</v>
+        <v>0.7074668131167243</v>
       </c>
       <c r="G23">
-        <v>0.0007322328122756891</v>
+        <v>0.002352343244505443</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1804113634023885</v>
+        <v>0.7182791098791554</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8065985550732648</v>
+        <v>0.308490736389615</v>
       </c>
       <c r="M23">
-        <v>0.6445755142922067</v>
+        <v>0.2848527505419085</v>
       </c>
       <c r="N23">
-        <v>1.612958428000368</v>
+        <v>1.633358163534496</v>
       </c>
       <c r="O23">
-        <v>4.336802789939327</v>
+        <v>2.221515940219433</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.766722458829548</v>
+        <v>0.9313739287644864</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01333380630149961</v>
+        <v>0.005458635969272763</v>
       </c>
       <c r="E24">
-        <v>0.7248160269682842</v>
+        <v>0.5262365099676884</v>
       </c>
       <c r="F24">
-        <v>1.239894383645293</v>
+        <v>0.6595368080229207</v>
       </c>
       <c r="G24">
-        <v>0.0007402089629669724</v>
+        <v>0.002357259409115181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2091830488237552</v>
+        <v>0.736208698792693</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6889591739571159</v>
+        <v>0.2752208523683493</v>
       </c>
       <c r="M24">
-        <v>0.5523772055057279</v>
+        <v>0.2583260982179851</v>
       </c>
       <c r="N24">
-        <v>1.527121844378541</v>
+        <v>1.61107180989579</v>
       </c>
       <c r="O24">
-        <v>3.696454259396035</v>
+        <v>2.083871792828973</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.456483273139582</v>
+        <v>0.8409460971047338</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01117938966046594</v>
+        <v>0.004759803926578599</v>
       </c>
       <c r="E25">
-        <v>0.6390615871603913</v>
+        <v>0.5000532517700336</v>
       </c>
       <c r="F25">
-        <v>1.016022346292857</v>
+        <v>0.6094301192209457</v>
       </c>
       <c r="G25">
-        <v>0.0007491137251539211</v>
+        <v>0.002362971257204787</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2436320330955273</v>
+        <v>0.7571916079001351</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5636048693142612</v>
+        <v>0.239496358570932</v>
       </c>
       <c r="M25">
-        <v>0.4538175082235014</v>
+        <v>0.2298669994567533</v>
       </c>
       <c r="N25">
-        <v>1.439464046962485</v>
+        <v>1.58910679172179</v>
       </c>
       <c r="O25">
-        <v>3.034440784611519</v>
+        <v>1.940643935681805</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7748443491049954</v>
+        <v>1.229408857687957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004241245969367924</v>
+        <v>0.00959553127599122</v>
       </c>
       <c r="E2">
-        <v>0.4807100932212052</v>
+        <v>0.576067206913919</v>
       </c>
       <c r="F2">
-        <v>0.5738872358297726</v>
+        <v>0.8572201600071168</v>
       </c>
       <c r="G2">
-        <v>0.002367532321094571</v>
+        <v>0.000755958261026815</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7740553189655508</v>
+        <v>0.2717044230182974</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2133349440246661</v>
+        <v>0.4722533967199638</v>
       </c>
       <c r="M2">
-        <v>0.2090503303009541</v>
+        <v>0.3817935217381958</v>
       </c>
       <c r="N2">
-        <v>1.574741273958978</v>
+        <v>1.378811633536856</v>
       </c>
       <c r="O2">
-        <v>1.839629889463225</v>
+        <v>2.566430254289401</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7303581576005342</v>
+        <v>1.076110582860196</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003887375460227105</v>
+        <v>0.008521629840991807</v>
       </c>
       <c r="E3">
-        <v>0.4675654428869507</v>
+        <v>0.5334038904386418</v>
       </c>
       <c r="F3">
-        <v>0.5506324538694258</v>
+        <v>0.7526220583235386</v>
       </c>
       <c r="G3">
-        <v>0.002370847008024264</v>
+        <v>0.0007607896171525545</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.786366584358291</v>
+        <v>0.2923117593324707</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1956957426630623</v>
+        <v>0.4107657948805183</v>
       </c>
       <c r="M3">
-        <v>0.1950314830238824</v>
+        <v>0.3332232637047525</v>
       </c>
       <c r="N3">
-        <v>1.566145445541849</v>
+        <v>1.339973082272394</v>
       </c>
       <c r="O3">
-        <v>1.773912749601266</v>
+        <v>2.25902200456909</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7032020066927203</v>
+        <v>0.9822023759425065</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003668921130433489</v>
+        <v>0.007861436285189427</v>
       </c>
       <c r="E4">
-        <v>0.4594787765513644</v>
+        <v>0.5072057597560971</v>
       </c>
       <c r="F4">
-        <v>0.5367620818859251</v>
+        <v>0.6896669020510728</v>
       </c>
       <c r="G4">
-        <v>0.002372993154237461</v>
+        <v>0.0007638551425715526</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7943611820636409</v>
+        <v>0.3057117798428108</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1849108055239412</v>
+        <v>0.3731702987853254</v>
       </c>
       <c r="M4">
-        <v>0.1864688781993848</v>
+        <v>0.3034904557358118</v>
       </c>
       <c r="N4">
-        <v>1.561434346395728</v>
+        <v>1.317195442079083</v>
       </c>
       <c r="O4">
-        <v>1.734905112674625</v>
+        <v>2.074381922912067</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.692176493205551</v>
+        <v>0.9439790451294243</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003579609102647652</v>
+        <v>0.007592126870029858</v>
       </c>
       <c r="E5">
-        <v>0.456179752841031</v>
+        <v>0.4965271511947407</v>
       </c>
       <c r="F5">
-        <v>0.5312121717730633</v>
+        <v>0.6643004626548219</v>
       </c>
       <c r="G5">
-        <v>0.002373895702896095</v>
+        <v>0.0007651298246381244</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.797728529855922</v>
+        <v>0.3113554011999553</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1805275510443778</v>
+        <v>0.3578828948060533</v>
       </c>
       <c r="M5">
-        <v>0.1829911269549243</v>
+        <v>0.291392733769392</v>
       </c>
       <c r="N5">
-        <v>1.559657839741647</v>
+        <v>1.308175735102168</v>
       </c>
       <c r="O5">
-        <v>1.71934596061385</v>
+        <v>2.000075600593107</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6903482102040357</v>
+        <v>0.937634538412027</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003564761554706308</v>
+        <v>0.00754738970347546</v>
       </c>
       <c r="E6">
-        <v>0.4556317422753082</v>
+        <v>0.494753762943823</v>
       </c>
       <c r="F6">
-        <v>0.5302967894218682</v>
+        <v>0.6601049336197775</v>
       </c>
       <c r="G6">
-        <v>0.00237404726281364</v>
+        <v>0.000765343037575399</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7982942877365193</v>
+        <v>0.3123034350281644</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1798004280365006</v>
+        <v>0.3553462421083964</v>
       </c>
       <c r="M6">
-        <v>0.1824143560021625</v>
+        <v>0.2893849333256355</v>
       </c>
       <c r="N6">
-        <v>1.559371530587867</v>
+        <v>1.306693681956105</v>
       </c>
       <c r="O6">
-        <v>1.716782688932057</v>
+        <v>1.987790883067817</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7030531461237501</v>
+        <v>0.9816867127800037</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003667717804038517</v>
+        <v>0.00785780548620707</v>
       </c>
       <c r="E7">
-        <v>0.4594342990664018</v>
+        <v>0.5070617574973824</v>
       </c>
       <c r="F7">
-        <v>0.5366868196685886</v>
+        <v>0.6893236733400414</v>
       </c>
       <c r="G7">
-        <v>0.002373005212952595</v>
+        <v>0.0007638722295785841</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7944061520064023</v>
+        <v>0.3057871569814918</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1848516437670185</v>
+        <v>0.3729640021838065</v>
       </c>
       <c r="M7">
-        <v>0.186421928801991</v>
+        <v>0.3033272311062234</v>
       </c>
       <c r="N7">
-        <v>1.561409806526385</v>
+        <v>1.317072745207582</v>
       </c>
       <c r="O7">
-        <v>1.734693914137324</v>
+        <v>2.073376136684146</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7594731695427583</v>
+        <v>1.176500397799998</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004119478889016648</v>
+        <v>0.009225373837836059</v>
       </c>
       <c r="E8">
-        <v>0.476181290963801</v>
+        <v>0.5613561605473194</v>
       </c>
       <c r="F8">
-        <v>0.5657841114829836</v>
+        <v>0.8208724094968574</v>
       </c>
       <c r="G8">
-        <v>0.002368652256964935</v>
+        <v>0.000757603893236841</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7782098658611034</v>
+        <v>0.2786518187928748</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.207243613076912</v>
+        <v>0.4510154702671514</v>
       </c>
       <c r="M8">
-        <v>0.20420743714228</v>
+        <v>0.3650254950740646</v>
       </c>
       <c r="N8">
-        <v>1.571660260979655</v>
+        <v>1.365194081812149</v>
       </c>
       <c r="O8">
-        <v>1.816691311576676</v>
+        <v>2.45952238320433</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8713338756544999</v>
+        <v>1.560742064171478</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004995837596599273</v>
+        <v>0.01190443551813658</v>
       </c>
       <c r="E9">
-        <v>0.5088837487412547</v>
+        <v>0.6679160535218287</v>
       </c>
       <c r="F9">
-        <v>0.6260975740445787</v>
+        <v>1.090392200766885</v>
       </c>
       <c r="G9">
-        <v>0.002360992243782305</v>
+        <v>0.0007460712417922677</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7499038805780929</v>
+        <v>0.2315924610583067</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2515083149291826</v>
+        <v>0.6056598850841368</v>
       </c>
       <c r="M9">
-        <v>0.2394324833578665</v>
+        <v>0.486918858606721</v>
       </c>
       <c r="N9">
-        <v>1.596226618815635</v>
+        <v>1.468365083747827</v>
       </c>
       <c r="O9">
-        <v>1.988195915065887</v>
+        <v>3.254091059397012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9542214552155315</v>
+        <v>1.845145179219912</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.005633660349293024</v>
+        <v>0.01387713137557967</v>
       </c>
       <c r="E10">
-        <v>0.5328107246589155</v>
+        <v>0.7464468620159366</v>
       </c>
       <c r="F10">
-        <v>0.672419811898564</v>
+        <v>1.297689752983999</v>
       </c>
       <c r="G10">
-        <v>0.002355893032632402</v>
+        <v>0.0007380217934326175</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.731212934187941</v>
+        <v>0.2010937831576436</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2842384328994285</v>
+        <v>0.720749226363921</v>
       </c>
       <c r="M10">
-        <v>0.2655141661284475</v>
+        <v>0.5773208042946081</v>
       </c>
       <c r="N10">
-        <v>1.616958675674226</v>
+        <v>1.55001450849953</v>
       </c>
       <c r="O10">
-        <v>2.120815983403304</v>
+        <v>3.867735390959353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9920737779063984</v>
+        <v>1.975165938120142</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.005922468826550897</v>
+        <v>0.01477709379203063</v>
       </c>
       <c r="E11">
-        <v>0.5436710432402236</v>
+        <v>0.7822756242884168</v>
       </c>
       <c r="F11">
-        <v>0.6939354085729548</v>
+        <v>1.394553837295632</v>
       </c>
       <c r="G11">
-        <v>0.002353686878641534</v>
+        <v>0.0007344423976730475</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7231669498702749</v>
+        <v>0.1881798194925344</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2991722738750866</v>
+        <v>0.7735490930647302</v>
       </c>
       <c r="M11">
-        <v>0.2774212433569616</v>
+        <v>0.618702816899912</v>
       </c>
       <c r="N11">
-        <v>1.62696493235174</v>
+        <v>1.588543840323624</v>
       </c>
       <c r="O11">
-        <v>2.182604589834568</v>
+        <v>4.155115147641595</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.006427643068776</v>
+        <v>2.024509935819538</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00603163546118779</v>
+        <v>0.01511840391693298</v>
       </c>
       <c r="E12">
-        <v>0.5477797790485681</v>
+        <v>0.7958629325707207</v>
       </c>
       <c r="F12">
-        <v>0.7021469264392124</v>
+        <v>1.431651715151077</v>
       </c>
       <c r="G12">
-        <v>0.002352867698245577</v>
+        <v>0.0007330979659436842</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7201858166923283</v>
+        <v>0.1834344467162856</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3048335812245284</v>
+        <v>0.7936180383599378</v>
       </c>
       <c r="M12">
-        <v>0.2819360132832927</v>
+        <v>0.6344165057915845</v>
       </c>
       <c r="N12">
-        <v>1.630836028985229</v>
+        <v>1.603343305403953</v>
       </c>
       <c r="O12">
-        <v>2.206213396308044</v>
+        <v>4.265279185937402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.003335407751251</v>
+        <v>2.013877764702954</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006008133415480899</v>
+        <v>0.01504487132394416</v>
       </c>
       <c r="E13">
-        <v>0.546895065286364</v>
+        <v>0.7929357027065365</v>
       </c>
       <c r="F13">
-        <v>0.7003755771590079</v>
+        <v>1.423642627559616</v>
       </c>
       <c r="G13">
-        <v>0.002353043402237565</v>
+        <v>0.0007333870378128258</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7208249340298907</v>
+        <v>0.1844498920113156</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3036140462282049</v>
+        <v>0.7892923244163796</v>
       </c>
       <c r="M13">
-        <v>0.28096342244352</v>
+        <v>0.6310302559587129</v>
       </c>
       <c r="N13">
-        <v>1.629998686586717</v>
+        <v>1.600146505993393</v>
       </c>
       <c r="O13">
-        <v>2.201119426199455</v>
+        <v>4.241491178134993</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9932542838655536</v>
+        <v>1.97922324282888</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.005931454052227281</v>
+        <v>0.01480516239033491</v>
       </c>
       <c r="E14">
-        <v>0.5440091502106839</v>
+        <v>0.7833930354555605</v>
       </c>
       <c r="F14">
-        <v>0.6946096903172077</v>
+        <v>1.397597238138957</v>
       </c>
       <c r="G14">
-        <v>0.002353619159023709</v>
+        <v>0.0007343315748019608</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7229203731354432</v>
+        <v>0.1877864710722204</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2996379104861262</v>
+        <v>0.7751986135034485</v>
       </c>
       <c r="M14">
-        <v>0.2777925611770442</v>
+        <v>0.6199946882549199</v>
       </c>
       <c r="N14">
-        <v>1.627281771841012</v>
+        <v>1.589757148985441</v>
       </c>
       <c r="O14">
-        <v>2.184542670102701</v>
+        <v>4.164150619259999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9870818799627159</v>
+        <v>1.958010881990845</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.005884459648502371</v>
+        <v>0.01465840526409679</v>
       </c>
       <c r="E15">
-        <v>0.5422409344969452</v>
+        <v>0.7775505972247245</v>
       </c>
       <c r="F15">
-        <v>0.6910862645496678</v>
+        <v>1.381699587662581</v>
       </c>
       <c r="G15">
-        <v>0.002353973939626503</v>
+        <v>0.0007349115387119138</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7242124483530588</v>
+        <v>0.1898492967338761</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2972032107483358</v>
+        <v>0.7665758829947151</v>
       </c>
       <c r="M15">
-        <v>0.2758510665752567</v>
+        <v>0.6132409043314198</v>
       </c>
       <c r="N15">
-        <v>1.62562823225835</v>
+        <v>1.583420920692063</v>
       </c>
       <c r="O15">
-        <v>2.174416410345032</v>
+        <v>4.116956611707451</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.951750573464011</v>
+        <v>1.836662263186014</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.00561475854087945</v>
+        <v>0.01381838036914118</v>
       </c>
       <c r="E16">
-        <v>0.5321004604146111</v>
+        <v>0.7441078587856325</v>
       </c>
       <c r="F16">
-        <v>0.6710226621590749</v>
+        <v>1.291415127325038</v>
       </c>
       <c r="G16">
-        <v>0.002356039487004865</v>
+        <v>0.0007382573025849461</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.73174795039799</v>
+        <v>0.2019576329571497</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2832633504211799</v>
+        <v>0.7173084880904526</v>
       </c>
       <c r="M16">
-        <v>0.2647368398875258</v>
+        <v>0.5746220933517279</v>
       </c>
       <c r="N16">
-        <v>1.616316251414645</v>
+        <v>1.547525255864997</v>
       </c>
       <c r="O16">
-        <v>2.11680739755036</v>
+        <v>3.849133091944054</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9301127088241969</v>
+        <v>1.762394357733257</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.005448957987418623</v>
+        <v>0.01330380794229313</v>
       </c>
       <c r="E17">
-        <v>0.525873162142581</v>
+        <v>0.7236217475594273</v>
       </c>
       <c r="F17">
-        <v>0.6588280450048956</v>
+        <v>1.236718597270851</v>
       </c>
       <c r="G17">
-        <v>0.002357335647632181</v>
+        <v>0.0007403303378889709</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7364877202494244</v>
+        <v>0.2096363192571986</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2747229812142962</v>
+        <v>0.6872059259653014</v>
       </c>
       <c r="M17">
-        <v>0.2579292811685718</v>
+        <v>0.5510009352829712</v>
       </c>
       <c r="N17">
-        <v>1.610750416786047</v>
+        <v>1.525866382534147</v>
       </c>
       <c r="O17">
-        <v>2.081840542257169</v>
+        <v>3.687046779837488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9176810177959283</v>
+        <v>1.719737086098462</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.005353468103695747</v>
+        <v>0.01300807202526499</v>
       </c>
       <c r="E18">
-        <v>0.5222891297532968</v>
+        <v>0.7118482134452506</v>
       </c>
       <c r="F18">
-        <v>0.6518557404777994</v>
+        <v>1.205496709466658</v>
       </c>
       <c r="G18">
-        <v>0.002358091853052401</v>
+        <v>0.0007415304967574426</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7392568871188447</v>
+        <v>0.2141428295843066</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2698150132854096</v>
+        <v>0.6699329302478247</v>
       </c>
       <c r="M18">
-        <v>0.254017759832017</v>
+        <v>0.537438529224751</v>
       </c>
       <c r="N18">
-        <v>1.607603275775332</v>
+        <v>1.513538657920975</v>
       </c>
       <c r="O18">
-        <v>2.061865807688491</v>
+        <v>3.594583539156361</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9134742687432436</v>
+        <v>1.705303867581705</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005321115452574077</v>
+        <v>0.01290797677971156</v>
       </c>
       <c r="E19">
-        <v>0.52107526144421</v>
+        <v>0.7078634036570222</v>
       </c>
       <c r="F19">
-        <v>0.649502194578119</v>
+        <v>1.194964986773883</v>
       </c>
       <c r="G19">
-        <v>0.002358349729213332</v>
+        <v>0.0007419382145482284</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7402018593529966</v>
+        <v>0.2156839013702117</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2681539931701877</v>
+        <v>0.6640913538830802</v>
       </c>
       <c r="M19">
-        <v>0.252694082475216</v>
+        <v>0.5328504499296756</v>
       </c>
       <c r="N19">
-        <v>1.606547036629536</v>
+        <v>1.509386720305173</v>
       </c>
       <c r="O19">
-        <v>2.055126252844843</v>
+        <v>3.563403842794401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9324146719220892</v>
+        <v>1.770294021164489</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00546662080218141</v>
+        <v>0.01335856000620694</v>
       </c>
       <c r="E20">
-        <v>0.526536304640679</v>
+        <v>0.725801510581519</v>
       </c>
       <c r="F20">
-        <v>0.6601218633263102</v>
+        <v>1.242516151660169</v>
       </c>
       <c r="G20">
-        <v>0.002357196563635427</v>
+        <v>0.000740108857930522</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7359787154145967</v>
+        <v>0.2088095541563377</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2756316824651464</v>
+        <v>0.6904060557766201</v>
       </c>
       <c r="M20">
-        <v>0.2586535447795484</v>
+        <v>0.5535129355265767</v>
       </c>
       <c r="N20">
-        <v>1.611337307500762</v>
+        <v>1.5281584944494</v>
       </c>
       <c r="O20">
-        <v>2.085548608991587</v>
+        <v>3.704220931778991</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.996214819414206</v>
+        <v>1.989399057916557</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.005953982085944887</v>
+        <v>0.01487555552687425</v>
       </c>
       <c r="E21">
-        <v>0.5448569202122187</v>
+        <v>0.7861953717055457</v>
       </c>
       <c r="F21">
-        <v>0.6963015311832095</v>
+        <v>1.405235656883491</v>
       </c>
       <c r="G21">
-        <v>0.002353449605153928</v>
+        <v>0.000734053849621617</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7223031082615465</v>
+        <v>0.1868024490637106</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3008056320326773</v>
+        <v>0.779336157987558</v>
       </c>
       <c r="M21">
-        <v>0.2787237642967924</v>
+        <v>0.6232348773992626</v>
       </c>
       <c r="N21">
-        <v>1.628077577633945</v>
+        <v>1.592802994512553</v>
       </c>
       <c r="O21">
-        <v>2.189405936209141</v>
+        <v>4.186829748223204</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.038028072324664</v>
+        <v>2.133234133087228</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.006271338881873589</v>
+        <v>0.01587007607441038</v>
       </c>
       <c r="E22">
-        <v>0.5568080075980788</v>
+        <v>0.8257839839955992</v>
       </c>
       <c r="F22">
-        <v>0.7203203669404843</v>
+        <v>1.51404193839052</v>
       </c>
       <c r="G22">
-        <v>0.002351095386738709</v>
+        <v>0.0007301602765997053</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7137483170892214</v>
+        <v>0.1732673701141763</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3172942042718603</v>
+        <v>0.8378986952014316</v>
       </c>
       <c r="M22">
-        <v>0.2918745975723169</v>
+        <v>0.6690573463935863</v>
       </c>
       <c r="N22">
-        <v>1.639495599053134</v>
+        <v>1.636276574083666</v>
       </c>
       <c r="O22">
-        <v>2.258511877538524</v>
+        <v>4.510133133446175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.015701263357414</v>
+        <v>2.056402954311295</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006102067924562249</v>
+        <v>0.01533894763466392</v>
       </c>
       <c r="E23">
-        <v>0.5504316620433016</v>
+        <v>0.8046422848161399</v>
       </c>
       <c r="F23">
-        <v>0.7074668131167243</v>
+        <v>1.455727610387115</v>
       </c>
       <c r="G23">
-        <v>0.002352343244505443</v>
+        <v>0.0007322328122476855</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7182791098791554</v>
+        <v>0.1804113634023734</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.308490736389615</v>
+        <v>0.8065985550732648</v>
       </c>
       <c r="M23">
-        <v>0.2848527505419085</v>
+        <v>0.6445755142922138</v>
       </c>
       <c r="N23">
-        <v>1.633358163534496</v>
+        <v>1.612958428000383</v>
       </c>
       <c r="O23">
-        <v>2.221515940219433</v>
+        <v>4.336802789939327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9313739287644864</v>
+        <v>1.766722458829321</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.005458635969272763</v>
+        <v>0.01333380630169501</v>
       </c>
       <c r="E24">
-        <v>0.5262365099676884</v>
+        <v>0.7248160269682913</v>
       </c>
       <c r="F24">
-        <v>0.6595368080229207</v>
+        <v>1.239894383645279</v>
       </c>
       <c r="G24">
-        <v>0.002357259409115181</v>
+        <v>0.0007402089630046824</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.736208698792693</v>
+        <v>0.2091830488237412</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2752208523683493</v>
+        <v>0.688959173956988</v>
       </c>
       <c r="M24">
-        <v>0.2583260982179851</v>
+        <v>0.5523772055057208</v>
       </c>
       <c r="N24">
-        <v>1.61107180989579</v>
+        <v>1.527121844378556</v>
       </c>
       <c r="O24">
-        <v>2.083871792828973</v>
+        <v>3.696454259396035</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8409460971047338</v>
+        <v>1.456483273139611</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004759803926578599</v>
+        <v>0.01117938966021725</v>
       </c>
       <c r="E25">
-        <v>0.5000532517700336</v>
+        <v>0.63906158716037</v>
       </c>
       <c r="F25">
-        <v>0.6094301192209457</v>
+        <v>1.016022346292843</v>
       </c>
       <c r="G25">
-        <v>0.002362971257204787</v>
+        <v>0.0007491137251599936</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7571916079001351</v>
+        <v>0.2436320330955308</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.239496358570932</v>
+        <v>0.5636048693141191</v>
       </c>
       <c r="M25">
-        <v>0.2298669994567533</v>
+        <v>0.4538175082235085</v>
       </c>
       <c r="N25">
-        <v>1.58910679172179</v>
+        <v>1.439464046962442</v>
       </c>
       <c r="O25">
-        <v>1.940643935681805</v>
+        <v>3.034440784611519</v>
       </c>
     </row>
   </sheetData>
